--- a/Second_Match/2.MAL3-DLC2 Stat 19.8.18.xlsx
+++ b/Second_Match/2.MAL3-DLC2 Stat 19.8.18.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Network" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -178,11 +178,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -198,12 +199,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -300,7 +295,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,43 +307,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,7 +363,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,7 +377,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="14.43"/>
   </cols>
@@ -580,7 +575,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -950,7 +945,7 @@
       <c r="F18" s="5" t="n">
         <v>0.072402032857953</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.901605742947585</v>
       </c>
       <c r="H18" s="5" t="n">
@@ -979,7 +974,7 @@
       <c r="E19" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.146845430708167</v>
       </c>
       <c r="G19" s="5" t="n">
@@ -2279,19 +2274,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,10 +2340,10 @@
       <c r="D2" s="10" t="n">
         <v>0.635</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.817434210526316</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.710526315789474</v>
       </c>
       <c r="G2" s="10" t="n">
@@ -2411,7 +2406,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Second_Match/2.MAL3-DLC2 Stat 19.8.18.xlsx
+++ b/Second_Match/2.MAL3-DLC2 Stat 19.8.18.xlsx
@@ -362,8 +362,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2269,7 +2269,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2341,7 +2341,7 @@
         <v>0.635</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.817434210526316</v>
+        <v>1.63486842105263</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.710526315789474</v>
@@ -2379,7 +2379,7 @@
         <v>0.549</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.80565371024735</v>
+        <v>1.35335689045936</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>1.12720848056537</v>
